--- a/domain_files/ifdat/model/BSI_DATAMODEL.xlsx
+++ b/domain_files/ifdat/model/BSI_DATAMODEL.xlsx
@@ -29,9 +29,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'GEN_CRRNCY_ENUM'!$A$1:$C$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'ATTR_OBSRVTN_STTS_ENUM'!$A$1:$C$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'ATTR_CNFDNTLTY_STTS_ENUM'!$A$1:$C$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'GEN_FRQNCY_ENUM'!$A$1:$C$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'DRVTV_STRTGY_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'BSI_RMNG_FXD_ENUM'!$A$1:$C$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'GEN_FRQNCY_ENUM'!$A$1:$C$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'DRVTV_STRTGY_ENUM'!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'BSI_RMNG_FXD_ENUM'!$A$1:$C$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'GEN_CNTRY_ENUM'!$A$1:$C$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'GRP_CNTRGRP_ENUM'!$A$1:$C$1649</definedName>
   </definedNames>
@@ -866,7 +866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -875,7 +875,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16.9" customWidth="1" min="1" max="1"/>
     <col width="28.6" customWidth="1" min="2" max="2"/>
@@ -899,73 +899,90 @@
     <row r="2" ht="36" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>MICRO_HEDGE</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>Micro hedge</t>
+          <t>Reset</t>
         </is>
       </c>
       <c r="C2" s="15" t="inlineStr">
         <is>
-          <t>Micro hedge</t>
+          <t>Reset value</t>
         </is>
       </c>
     </row>
     <row r="3" ht="36" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>MACRO_HEDGE</t>
+          <t>MICRO_HEDGE</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>Macro hedge</t>
+          <t>Micro hedge</t>
         </is>
       </c>
       <c r="C3" s="16" t="inlineStr">
         <is>
-          <t>Macro hedge</t>
+          <t>Micro hedge</t>
         </is>
       </c>
     </row>
     <row r="4" ht="36" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>PORT_MGMNT</t>
+          <t>MACRO_HEDGE</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>Portfolio management</t>
+          <t>Macro hedge</t>
         </is>
       </c>
       <c r="C4" s="15" t="inlineStr">
         <is>
-          <t>Portfolio management</t>
+          <t>Macro hedge</t>
         </is>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1">
       <c r="A5" s="6" t="inlineStr">
         <is>
+          <t>PORT_MGMNT</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>Portfolio management</t>
+        </is>
+      </c>
+      <c r="C5" s="16" t="inlineStr">
+        <is>
+          <t>Portfolio management</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="36" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
           <t>SPECULATIVE</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Speculative</t>
         </is>
       </c>
-      <c r="C5" s="16" t="inlineStr">
+      <c r="C6" s="15" t="inlineStr">
         <is>
           <t>Speculative</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C5"/>
+  <autoFilter ref="A1:C6"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -976,7 +993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -985,7 +1002,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9.1" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -1009,226 +1026,243 @@
     <row r="2" ht="36" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>N1131</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B2" s="15" t="inlineStr">
         <is>
-          <t>Transport equipment</t>
+          <t>Reset</t>
         </is>
       </c>
       <c r="C2" s="15" t="inlineStr">
         <is>
-          <t>Transport equipment</t>
+          <t>Reset value</t>
         </is>
       </c>
     </row>
     <row r="3" ht="36" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>N1132</t>
+          <t>N1131</t>
         </is>
       </c>
       <c r="B3" s="16" t="inlineStr">
         <is>
-          <t>ICT equipment</t>
+          <t>Transport equipment</t>
         </is>
       </c>
       <c r="C3" s="16" t="inlineStr">
         <is>
-          <t>ICT equipment</t>
+          <t>Transport equipment</t>
         </is>
       </c>
     </row>
     <row r="4" ht="36" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>N1139</t>
+          <t>N1132</t>
         </is>
       </c>
       <c r="B4" s="15" t="inlineStr">
         <is>
-          <t>Other machinery and equipment</t>
+          <t>ICT equipment</t>
         </is>
       </c>
       <c r="C4" s="15" t="inlineStr">
         <is>
-          <t>Other machinery and equipment</t>
+          <t>ICT equipment</t>
         </is>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>N114</t>
+          <t>N1139</t>
         </is>
       </c>
       <c r="B5" s="16" t="inlineStr">
         <is>
-          <t>Weapons Systems</t>
+          <t>Other machinery and equipment</t>
         </is>
       </c>
       <c r="C5" s="16" t="inlineStr">
         <is>
-          <t>Weapons Systems</t>
+          <t>Other machinery and equipment</t>
         </is>
       </c>
     </row>
     <row r="6" ht="36" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>N115</t>
+          <t>N114</t>
         </is>
       </c>
       <c r="B6" s="15" t="inlineStr">
         <is>
-          <t>Cultivated biological resources</t>
+          <t>Weapons Systems</t>
         </is>
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>Cultivated biological resources</t>
+          <t>Weapons Systems</t>
         </is>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>N1171</t>
+          <t>N115</t>
         </is>
       </c>
       <c r="B7" s="16" t="inlineStr">
         <is>
-          <t>Research and development</t>
+          <t>Cultivated biological resources</t>
         </is>
       </c>
       <c r="C7" s="16" t="inlineStr">
         <is>
-          <t>Research and development</t>
+          <t>Cultivated biological resources</t>
         </is>
       </c>
     </row>
     <row r="8" ht="36" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>N1172</t>
+          <t>N1171</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
         <is>
-          <t>Mineral exploration and evaluation</t>
+          <t>Research and development</t>
         </is>
       </c>
       <c r="C8" s="15" t="inlineStr">
         <is>
-          <t>Mineral exploration and evaluation</t>
+          <t>Research and development</t>
         </is>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>N1173</t>
+          <t>N1172</t>
         </is>
       </c>
       <c r="B9" s="16" t="inlineStr">
         <is>
-          <t>Computer software and databases</t>
+          <t>Mineral exploration and evaluation</t>
         </is>
       </c>
       <c r="C9" s="16" t="inlineStr">
         <is>
-          <t>Computer software and databases</t>
+          <t>Mineral exploration and evaluation</t>
         </is>
       </c>
     </row>
     <row r="10" ht="36" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>N1174</t>
+          <t>N1173</t>
         </is>
       </c>
       <c r="B10" s="15" t="inlineStr">
         <is>
-          <t>Entertainment, literacy or artistic originals</t>
+          <t>Computer software and databases</t>
         </is>
       </c>
       <c r="C10" s="15" t="inlineStr">
         <is>
-          <t>Entertainment, literacy or artistic originals</t>
+          <t>Computer software and databases</t>
         </is>
       </c>
     </row>
     <row r="11" ht="36" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>N1179</t>
+          <t>N1174</t>
         </is>
       </c>
       <c r="B11" s="16" t="inlineStr">
         <is>
-          <t>Other intellectual property products</t>
+          <t>Entertainment, literacy or artistic originals</t>
         </is>
       </c>
       <c r="C11" s="16" t="inlineStr">
         <is>
-          <t>Other intellectual property products</t>
+          <t>Entertainment, literacy or artistic originals</t>
         </is>
       </c>
     </row>
     <row r="12" ht="36" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>N131</t>
+          <t>N1179</t>
         </is>
       </c>
       <c r="B12" s="15" t="inlineStr">
         <is>
-          <t>Precious metals and stones</t>
+          <t>Other intellectual property products</t>
         </is>
       </c>
       <c r="C12" s="15" t="inlineStr">
         <is>
-          <t>Precious metals and stones</t>
+          <t>Other intellectual property products</t>
         </is>
       </c>
     </row>
     <row r="13" ht="36" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>N132</t>
+          <t>N131</t>
         </is>
       </c>
       <c r="B13" s="16" t="inlineStr">
         <is>
-          <t>Antiques and other art objects</t>
+          <t>Precious metals and stones</t>
         </is>
       </c>
       <c r="C13" s="16" t="inlineStr">
         <is>
-          <t>Antiques and other art objects</t>
+          <t>Precious metals and stones</t>
         </is>
       </c>
     </row>
     <row r="14" ht="36" customHeight="1">
       <c r="A14" s="4" t="inlineStr">
         <is>
+          <t>N132</t>
+        </is>
+      </c>
+      <c r="B14" s="15" t="inlineStr">
+        <is>
+          <t>Antiques and other art objects</t>
+        </is>
+      </c>
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>Antiques and other art objects</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="36" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
           <t>N133</t>
         </is>
       </c>
-      <c r="B14" s="15" t="inlineStr">
+      <c r="B15" s="16" t="inlineStr">
         <is>
           <t>Other valuables</t>
         </is>
       </c>
-      <c r="C14" s="15" t="inlineStr">
+      <c r="C15" s="16" t="inlineStr">
         <is>
           <t>Other valuables</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C14"/>
+  <autoFilter ref="A1:C15"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1248,7 +1282,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.2" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -3041,7 +3075,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -31099,7 +31133,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20.8" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
@@ -31552,7 +31586,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20.8" customWidth="1" min="1" max="1"/>
     <col width="14.3" customWidth="1" min="2" max="2"/>
@@ -31606,7 +31640,7 @@
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -31640,7 +31674,7 @@
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -31674,7 +31708,7 @@
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -31708,7 +31742,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -31725,7 +31759,7 @@
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -31776,7 +31810,7 @@
       </c>
       <c r="C13" s="9" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -31793,7 +31827,7 @@
       </c>
       <c r="C14" s="9" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -31844,7 +31878,7 @@
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -31861,7 +31895,7 @@
       </c>
       <c r="C18" s="11" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -31912,7 +31946,7 @@
       </c>
       <c r="C21" s="9" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -31963,7 +31997,7 @@
       </c>
       <c r="C24" s="11" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -32014,7 +32048,7 @@
       </c>
       <c r="C27" s="9" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -32099,7 +32133,7 @@
       </c>
       <c r="C32" s="11" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -32150,7 +32184,7 @@
       </c>
       <c r="C35" s="9" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -32218,7 +32252,7 @@
       </c>
       <c r="C39" s="11" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -32252,7 +32286,7 @@
       </c>
       <c r="C41" s="9" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -32269,7 +32303,7 @@
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -32320,7 +32354,7 @@
       </c>
       <c r="C45" s="11" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -32354,7 +32388,7 @@
       </c>
       <c r="C47" s="9" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -32422,7 +32456,7 @@
       </c>
       <c r="C51" s="11" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -32439,7 +32473,7 @@
       </c>
       <c r="C52" s="11" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -32569,7 +32603,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20.8" customWidth="1" min="1" max="1"/>
     <col width="16.9" customWidth="1" min="2" max="2"/>
@@ -34022,7 +34056,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20.8" customWidth="1" min="1" max="1"/>
     <col width="16.9" customWidth="1" min="2" max="2"/>
@@ -38605,7 +38639,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6.5" customWidth="1" min="1" max="1"/>
     <col width="26" customWidth="1" min="2" max="2"/>
@@ -39344,7 +39378,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.2" customWidth="1" min="1" max="1"/>
     <col width="44.2" customWidth="1" min="2" max="2"/>
@@ -39454,7 +39488,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.2" customWidth="1" min="1" max="1"/>
     <col width="49.4" customWidth="1" min="2" max="2"/>
@@ -39521,7 +39555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -39530,7 +39564,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6.5" customWidth="1" min="1" max="1"/>
     <col width="29.9" customWidth="1" min="2" max="2"/>
@@ -39554,583 +39588,600 @@
     <row r="2" ht="36" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>Annual</t>
+          <t>Reset</t>
         </is>
       </c>
       <c r="C2" s="15" t="inlineStr">
         <is>
-          <t>Annual</t>
+          <t>Reset value</t>
         </is>
       </c>
     </row>
     <row r="3" ht="36" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>Daily - businessweek</t>
+          <t>Annual</t>
         </is>
       </c>
       <c r="C3" s="16" t="inlineStr">
         <is>
-          <t>Daily - businessweek</t>
+          <t>Annual</t>
         </is>
       </c>
     </row>
     <row r="4" ht="36" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Daily - businessweek</t>
         </is>
       </c>
       <c r="C4" s="15" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Daily - businessweek</t>
         </is>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>Hourly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C5" s="16" t="inlineStr">
         <is>
-          <t>Hourly</t>
+          <t>Daily</t>
         </is>
       </c>
     </row>
     <row r="6" ht="36" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Hourly</t>
         </is>
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Hourly</t>
         </is>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>Minutely</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C7" s="16" t="inlineStr">
         <is>
-          <t>Minutely</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="8" ht="36" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Minutely</t>
         </is>
       </c>
       <c r="C8" s="15" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Minutely</t>
         </is>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>Half-yearly, semester</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C9" s="16" t="inlineStr">
         <is>
-          <t>Half-yearly, semester</t>
+          <t>Quarterly</t>
         </is>
       </c>
     </row>
     <row r="10" ht="36" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Half-yearly, semester</t>
         </is>
       </c>
       <c r="C10" s="15" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Half-yearly, semester</t>
         </is>
       </c>
     </row>
     <row r="11" ht="36" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>Biennial</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C11" s="16" t="inlineStr">
         <is>
-          <t>Biennial</t>
+          <t>Weekly</t>
         </is>
       </c>
     </row>
     <row r="12" ht="36" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>Triennial</t>
+          <t>Biennial</t>
         </is>
       </c>
       <c r="C12" s="15" t="inlineStr">
         <is>
-          <t>Triennial</t>
+          <t>Biennial</t>
         </is>
       </c>
     </row>
     <row r="13" ht="36" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>Quadrennial</t>
+          <t>Triennial</t>
         </is>
       </c>
       <c r="C13" s="16" t="inlineStr">
         <is>
-          <t>Quadrennial</t>
+          <t>Triennial</t>
         </is>
       </c>
     </row>
     <row r="14" ht="36" customHeight="1">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="B14" s="9" t="inlineStr">
         <is>
-          <t>Quinquennial</t>
+          <t>Quadrennial</t>
         </is>
       </c>
       <c r="C14" s="15" t="inlineStr">
         <is>
-          <t>Quinquennial</t>
+          <t>Quadrennial</t>
         </is>
       </c>
     </row>
     <row r="15" ht="36" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>Decennial</t>
+          <t>Quinquennial</t>
         </is>
       </c>
       <c r="C15" s="16" t="inlineStr">
         <is>
-          <t>Decennial</t>
+          <t>Quinquennial</t>
         </is>
       </c>
     </row>
     <row r="16" ht="36" customHeight="1">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>Bidecennial</t>
+          <t>Decennial</t>
         </is>
       </c>
       <c r="C16" s="15" t="inlineStr">
         <is>
-          <t>Bidecennial</t>
+          <t>Decennial</t>
         </is>
       </c>
     </row>
     <row r="17" ht="36" customHeight="1">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>Tridecennial</t>
+          <t>Bidecennial</t>
         </is>
       </c>
       <c r="C17" s="16" t="inlineStr">
         <is>
-          <t>Tridecennial</t>
+          <t>Bidecennial</t>
         </is>
       </c>
     </row>
     <row r="18" ht="36" customHeight="1">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>A_3</t>
+          <t>A30</t>
         </is>
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>Three times a year</t>
+          <t>Tridecennial</t>
         </is>
       </c>
       <c r="C18" s="15" t="inlineStr">
         <is>
-          <t>Three times a year</t>
+          <t>Tridecennial</t>
         </is>
       </c>
     </row>
     <row r="19" ht="36" customHeight="1">
       <c r="A19" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>A_3</t>
         </is>
       </c>
       <c r="B19" s="11" t="inlineStr">
         <is>
-          <t>Bimonthly</t>
+          <t>Three times a year</t>
         </is>
       </c>
       <c r="C19" s="16" t="inlineStr">
         <is>
-          <t>Bimonthly</t>
+          <t>Three times a year</t>
         </is>
       </c>
     </row>
     <row r="20" ht="36" customHeight="1">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>M_2</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>Semimonthly</t>
+          <t>Bimonthly</t>
         </is>
       </c>
       <c r="C20" s="15" t="inlineStr">
         <is>
-          <t>Semimonthly</t>
+          <t>Bimonthly</t>
         </is>
       </c>
     </row>
     <row r="21" ht="36" customHeight="1">
       <c r="A21" s="6" t="inlineStr">
         <is>
-          <t>M_3</t>
+          <t>M_2</t>
         </is>
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>Three times a month</t>
+          <t>Semimonthly</t>
         </is>
       </c>
       <c r="C21" s="16" t="inlineStr">
         <is>
-          <t>Three times a month</t>
+          <t>Semimonthly</t>
         </is>
       </c>
     </row>
     <row r="22" ht="36" customHeight="1">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>M_3</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>Biweekly</t>
+          <t>Three times a month</t>
         </is>
       </c>
       <c r="C22" s="15" t="inlineStr">
         <is>
-          <t>Biweekly</t>
+          <t>Three times a month</t>
         </is>
       </c>
     </row>
     <row r="23" ht="36" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B23" s="11" t="inlineStr">
         <is>
-          <t>Triweekly</t>
+          <t>Biweekly</t>
         </is>
       </c>
       <c r="C23" s="16" t="inlineStr">
         <is>
-          <t>Triweekly</t>
+          <t>Biweekly</t>
         </is>
       </c>
     </row>
     <row r="24" ht="36" customHeight="1">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>W4</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>Four-weekly</t>
+          <t>Triweekly</t>
         </is>
       </c>
       <c r="C24" s="15" t="inlineStr">
         <is>
-          <t>Four-weekly</t>
+          <t>Triweekly</t>
         </is>
       </c>
     </row>
     <row r="25" ht="36" customHeight="1">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>W_2</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B25" s="11" t="inlineStr">
         <is>
-          <t>Semiweekly</t>
+          <t>Four-weekly</t>
         </is>
       </c>
       <c r="C25" s="16" t="inlineStr">
         <is>
-          <t>Semiweekly</t>
+          <t>Four-weekly</t>
         </is>
       </c>
     </row>
     <row r="26" ht="36" customHeight="1">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>W_3</t>
+          <t>W_2</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>Three times a week</t>
+          <t>Semiweekly</t>
         </is>
       </c>
       <c r="C26" s="15" t="inlineStr">
         <is>
-          <t>Three times a week</t>
+          <t>Semiweekly</t>
         </is>
       </c>
     </row>
     <row r="27" ht="36" customHeight="1">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>D_2</t>
+          <t>W_3</t>
         </is>
       </c>
       <c r="B27" s="11" t="inlineStr">
         <is>
-          <t>Twice a day</t>
+          <t>Three times a week</t>
         </is>
       </c>
       <c r="C27" s="16" t="inlineStr">
         <is>
-          <t>Twice a day</t>
+          <t>Three times a week</t>
         </is>
       </c>
     </row>
     <row r="28" ht="36" customHeight="1">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>D_2</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>Bihourly</t>
+          <t>Twice a day</t>
         </is>
       </c>
       <c r="C28" s="15" t="inlineStr">
         <is>
-          <t>Bihourly</t>
+          <t>Twice a day</t>
         </is>
       </c>
     </row>
     <row r="29" ht="36" customHeight="1">
       <c r="A29" s="6" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B29" s="11" t="inlineStr">
         <is>
-          <t>Trihourly</t>
+          <t>Bihourly</t>
         </is>
       </c>
       <c r="C29" s="16" t="inlineStr">
         <is>
-          <t>Trihourly</t>
+          <t>Bihourly</t>
         </is>
       </c>
     </row>
     <row r="30" ht="36" customHeight="1">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>Irregular</t>
+          <t>Trihourly</t>
         </is>
       </c>
       <c r="C30" s="15" t="inlineStr">
         <is>
-          <t>Irregular</t>
+          <t>Trihourly</t>
         </is>
       </c>
     </row>
     <row r="31" ht="36" customHeight="1">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B31" s="11" t="inlineStr">
         <is>
-          <t>Occasional annual</t>
+          <t>Irregular</t>
         </is>
       </c>
       <c r="C31" s="16" t="inlineStr">
         <is>
-          <t>Occasional annual</t>
+          <t>Irregular</t>
         </is>
       </c>
     </row>
     <row r="32" ht="36" customHeight="1">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>OA</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>Occasional monthly</t>
+          <t>Occasional annual</t>
         </is>
       </c>
       <c r="C32" s="15" t="inlineStr">
         <is>
-          <t>Occasional monthly</t>
+          <t>Occasional annual</t>
         </is>
       </c>
     </row>
     <row r="33" ht="36" customHeight="1">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>_O</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="B33" s="11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Occasional monthly</t>
         </is>
       </c>
       <c r="C33" s="16" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Occasional monthly</t>
         </is>
       </c>
     </row>
     <row r="34" ht="36" customHeight="1">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>_U</t>
+          <t>_O</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C34" s="15" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="35" ht="36" customHeight="1">
       <c r="A35" s="6" t="inlineStr">
         <is>
+          <t>_U</t>
+        </is>
+      </c>
+      <c r="B35" s="11" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="C35" s="16" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="36" customHeight="1">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
           <t>_Z</t>
         </is>
       </c>
-      <c r="B35" s="11" t="inlineStr">
+      <c r="B36" s="9" t="inlineStr">
         <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="C35" s="16" t="inlineStr">
+      <c r="C36" s="15" t="inlineStr">
         <is>
           <t>Not applicable</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C35"/>
+  <autoFilter ref="A1:C36"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/domain_files/ifdat/model/BSI_DATAMODEL.xlsx
+++ b/domain_files/ifdat/model/BSI_DATAMODEL.xlsx
@@ -24,8 +24,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DSDS'!$A$1:$D$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DIMS'!$A$1:$C$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'MEASURES'!$A$1:$C$79</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ATTRS'!$A$1:$E$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'MEASURES'!$A$1:$C$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ATTRS'!$A$1:$E$153</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'GEN_CRRNCY_ENUM'!$A$1:$C$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'ATTR_OBSRVTN_STTS_ENUM'!$A$1:$C$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'ATTR_CNFDNTLTY_STTS_ENUM'!$A$1:$C$3</definedName>
@@ -32594,7 +32594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -32713,68 +32713,68 @@
       </c>
     </row>
     <row r="7" ht="36" customHeight="1">
-      <c r="A7" s="10" t="inlineStr">
-        <is>
-          <t>DEPOSIT</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C7" s="11" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>ASSET_SFT</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="8" ht="36" customHeight="1">
-      <c r="A8" s="10" t="inlineStr">
-        <is>
-          <t>DEPOSIT</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>WRT_OFFS</t>
-        </is>
-      </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>ASSET_SFT</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>ASSET_SFT</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="A9" s="10" t="inlineStr">
+        <is>
+          <t>ASSET_DEBT</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>STCK</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="10" ht="36" customHeight="1">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>ASSET_SFT</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="A10" s="10" t="inlineStr">
+        <is>
+          <t>ASSET_DEBT</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>EUR_STCK</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
@@ -32788,12 +32788,12 @@
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+          <t>FLOAT</t>
         </is>
       </c>
     </row>
@@ -32805,7 +32805,7 @@
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>NMNL_STCK</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
@@ -32822,12 +32822,12 @@
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>LND_FR_RPS</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>FLOAT</t>
+          <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
@@ -32839,7 +32839,7 @@
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>NMNL_STCK</t>
+          <t>LND_FR_SCLB</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
@@ -32856,7 +32856,7 @@
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>LND_FR_RPS</t>
+          <t>LND_FR_BSBT</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
@@ -32873,7 +32873,7 @@
       </c>
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>LND_FR_SCLB</t>
+          <t>LND_FR_MLT</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
@@ -32890,12 +32890,12 @@
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>LND_FR_BSBT</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+          <t>FLOAT</t>
         </is>
       </c>
     </row>
@@ -32907,46 +32907,46 @@
       </c>
       <c r="B18" s="6" t="inlineStr">
         <is>
-          <t>LND_FR_MLT</t>
+          <t>ARRRS</t>
         </is>
       </c>
       <c r="C18" s="11" t="inlineStr">
         <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="36" customHeight="1">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>SHARE</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C19" s="9" t="inlineStr">
+        <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="36" customHeight="1">
-      <c r="A19" s="10" t="inlineStr">
-        <is>
-          <t>ASSET_DEBT</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>ACCRLS</t>
-        </is>
-      </c>
-      <c r="C19" s="11" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
-        </is>
-      </c>
-    </row>
     <row r="20" ht="36" customHeight="1">
-      <c r="A20" s="10" t="inlineStr">
-        <is>
-          <t>ASSET_DEBT</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C20" s="11" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>SHARE</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C20" s="9" t="inlineStr">
+        <is>
+          <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
@@ -32958,12 +32958,12 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr">
         <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+          <t>FLOAT</t>
         </is>
       </c>
     </row>
@@ -32975,7 +32975,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>QNTTY</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -32992,12 +32992,12 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>LND_FR_RPS</t>
         </is>
       </c>
       <c r="C23" s="9" t="inlineStr">
         <is>
-          <t>FLOAT</t>
+          <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
@@ -33009,7 +33009,7 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>QNTTY</t>
+          <t>LND_FR_SCLB</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -33026,7 +33026,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>LND_FR_RPS</t>
+          <t>LND_FR_BSBT</t>
         </is>
       </c>
       <c r="C25" s="9" t="inlineStr">
@@ -33043,7 +33043,7 @@
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>LND_FR_SCLB</t>
+          <t>LND_FR_MLT</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -33053,36 +33053,36 @@
       </c>
     </row>
     <row r="27" ht="36" customHeight="1">
-      <c r="A27" s="8" t="inlineStr">
-        <is>
-          <t>SHARE</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>LND_FR_BSBT</t>
-        </is>
-      </c>
-      <c r="C27" s="9" t="inlineStr">
-        <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+      <c r="A27" s="10" t="inlineStr">
+        <is>
+          <t>EXT_DERIVATIVE</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C27" s="11" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
         </is>
       </c>
     </row>
     <row r="28" ht="36" customHeight="1">
-      <c r="A28" s="8" t="inlineStr">
-        <is>
-          <t>SHARE</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>LND_FR_MLT</t>
-        </is>
-      </c>
-      <c r="C28" s="9" t="inlineStr">
-        <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+      <c r="A28" s="10" t="inlineStr">
+        <is>
+          <t>EXT_DERIVATIVE</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C28" s="11" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
         </is>
       </c>
     </row>
@@ -33094,7 +33094,7 @@
       </c>
       <c r="B29" s="6" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>GRSS_STCK</t>
         </is>
       </c>
       <c r="C29" s="11" t="inlineStr">
@@ -33111,7 +33111,7 @@
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C30" s="11" t="inlineStr">
@@ -33128,12 +33128,12 @@
       </c>
       <c r="B31" s="6" t="inlineStr">
         <is>
-          <t>GRSS_STCK</t>
+          <t>QNTTY</t>
         </is>
       </c>
       <c r="C31" s="11" t="inlineStr">
         <is>
-          <t>FLOAT</t>
+          <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
@@ -33145,46 +33145,46 @@
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
-        </is>
-      </c>
-      <c r="C32" s="11" t="inlineStr">
+          <t>STRTGY</t>
+        </is>
+      </c>
+      <c r="C32" s="7" t="inlineStr">
+        <is>
+          <t>DRVTV_STRTGY_ENUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="36" customHeight="1">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>OTC_DERIVATIVE</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="36" customHeight="1">
-      <c r="A33" s="10" t="inlineStr">
-        <is>
-          <t>EXT_DERIVATIVE</t>
-        </is>
-      </c>
-      <c r="B33" s="6" t="inlineStr">
-        <is>
-          <t>QNTTY</t>
-        </is>
-      </c>
-      <c r="C33" s="11" t="inlineStr">
-        <is>
-          <t>NON_NEGATIVE_FLOAT</t>
-        </is>
-      </c>
-    </row>
     <row r="34" ht="36" customHeight="1">
-      <c r="A34" s="10" t="inlineStr">
-        <is>
-          <t>EXT_DERIVATIVE</t>
-        </is>
-      </c>
-      <c r="B34" s="6" t="inlineStr">
-        <is>
-          <t>STRTGY</t>
-        </is>
-      </c>
-      <c r="C34" s="7" t="inlineStr">
-        <is>
-          <t>DRVTV_STRTGY_ENUM</t>
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>OTC_DERIVATIVE</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
         </is>
       </c>
     </row>
@@ -33196,7 +33196,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C35" s="9" t="inlineStr">
@@ -33213,46 +33213,46 @@
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
+          <t>STRTGY</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>DRVTV_STRTGY_ENUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="36" customHeight="1">
+      <c r="A37" s="10" t="inlineStr">
+        <is>
+          <t>RESIDENTIAL_RE</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C37" s="11" t="inlineStr">
+        <is>
+          <t>NON_NEGATIVE_FLOAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="36" customHeight="1">
+      <c r="A38" s="10" t="inlineStr">
+        <is>
+          <t>RESIDENTIAL_RE</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="inlineStr">
+        <is>
           <t>EUR_STCK</t>
         </is>
       </c>
-      <c r="C36" s="9" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="36" customHeight="1">
-      <c r="A37" s="8" t="inlineStr">
-        <is>
-          <t>OTC_DERIVATIVE</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>TRNSCTNS</t>
-        </is>
-      </c>
-      <c r="C37" s="9" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="36" customHeight="1">
-      <c r="A38" s="8" t="inlineStr">
-        <is>
-          <t>OTC_DERIVATIVE</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>STRTGY</t>
-        </is>
-      </c>
-      <c r="C38" s="5" t="inlineStr">
-        <is>
-          <t>DRVTV_STRTGY_ENUM</t>
+      <c r="C38" s="11" t="inlineStr">
+        <is>
+          <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
@@ -33264,12 +33264,12 @@
       </c>
       <c r="B39" s="6" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C39" s="11" t="inlineStr">
         <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+          <t>FLOAT</t>
         </is>
       </c>
     </row>
@@ -33281,12 +33281,12 @@
       </c>
       <c r="B40" s="6" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C40" s="11" t="inlineStr">
         <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+          <t>FLOAT</t>
         </is>
       </c>
     </row>
@@ -33298,7 +33298,7 @@
       </c>
       <c r="B41" s="6" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>ARRRS</t>
         </is>
       </c>
       <c r="C41" s="11" t="inlineStr">
@@ -33315,44 +33315,44 @@
       </c>
       <c r="B42" s="6" t="inlineStr">
         <is>
-          <t>ACCRLS</t>
+          <t>WRT_OFFS</t>
         </is>
       </c>
       <c r="C42" s="11" t="inlineStr">
         <is>
-          <t>FLOAT</t>
+          <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="43" ht="36" customHeight="1">
-      <c r="A43" s="10" t="inlineStr">
-        <is>
-          <t>RESIDENTIAL_RE</t>
-        </is>
-      </c>
-      <c r="B43" s="6" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C43" s="11" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
+      <c r="A43" s="8" t="inlineStr">
+        <is>
+          <t>COMMERCIAL_RE</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C43" s="9" t="inlineStr">
+        <is>
+          <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="44" ht="36" customHeight="1">
-      <c r="A44" s="10" t="inlineStr">
-        <is>
-          <t>RESIDENTIAL_RE</t>
-        </is>
-      </c>
-      <c r="B44" s="6" t="inlineStr">
-        <is>
-          <t>WRT_OFFS</t>
-        </is>
-      </c>
-      <c r="C44" s="11" t="inlineStr">
+      <c r="A44" s="8" t="inlineStr">
+        <is>
+          <t>COMMERCIAL_RE</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="inlineStr">
         <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
@@ -33366,12 +33366,12 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C45" s="9" t="inlineStr">
         <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+          <t>FLOAT</t>
         </is>
       </c>
     </row>
@@ -33383,12 +33383,12 @@
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+          <t>FLOAT</t>
         </is>
       </c>
     </row>
@@ -33400,7 +33400,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>ARRRS</t>
         </is>
       </c>
       <c r="C47" s="9" t="inlineStr">
@@ -33417,44 +33417,44 @@
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>ACCRLS</t>
+          <t>WRT_OFFS</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>FLOAT</t>
+          <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="49" ht="36" customHeight="1">
-      <c r="A49" s="8" t="inlineStr">
-        <is>
-          <t>COMMERCIAL_RE</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C49" s="9" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
+      <c r="A49" s="10" t="inlineStr">
+        <is>
+          <t>REM_FIXED</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C49" s="11" t="inlineStr">
+        <is>
+          <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="50" ht="36" customHeight="1">
-      <c r="A50" s="8" t="inlineStr">
-        <is>
-          <t>COMMERCIAL_RE</t>
-        </is>
-      </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>WRT_OFFS</t>
-        </is>
-      </c>
-      <c r="C50" s="9" t="inlineStr">
+      <c r="A50" s="10" t="inlineStr">
+        <is>
+          <t>REM_FIXED</t>
+        </is>
+      </c>
+      <c r="B50" s="6" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C50" s="11" t="inlineStr">
         <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
@@ -33468,12 +33468,12 @@
       </c>
       <c r="B51" s="6" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C51" s="11" t="inlineStr">
         <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+          <t>FLOAT</t>
         </is>
       </c>
     </row>
@@ -33485,12 +33485,12 @@
       </c>
       <c r="B52" s="6" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C52" s="11" t="inlineStr">
         <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+          <t>FLOAT</t>
         </is>
       </c>
     </row>
@@ -33502,7 +33502,7 @@
       </c>
       <c r="B53" s="6" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>ARRRS</t>
         </is>
       </c>
       <c r="C53" s="11" t="inlineStr">
@@ -33519,112 +33519,112 @@
       </c>
       <c r="B54" s="6" t="inlineStr">
         <is>
-          <t>ACCRLS</t>
+          <t>WRT_OFFS</t>
         </is>
       </c>
       <c r="C54" s="11" t="inlineStr">
         <is>
-          <t>FLOAT</t>
+          <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="55" ht="36" customHeight="1">
-      <c r="A55" s="10" t="inlineStr">
-        <is>
-          <t>REM_FIXED</t>
-        </is>
-      </c>
-      <c r="B55" s="6" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C55" s="11" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
+      <c r="A55" s="8" t="inlineStr">
+        <is>
+          <t>ASSET_REM</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C55" s="9" t="inlineStr">
+        <is>
+          <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="56" ht="36" customHeight="1">
-      <c r="A56" s="10" t="inlineStr">
-        <is>
-          <t>REM_FIXED</t>
-        </is>
-      </c>
-      <c r="B56" s="6" t="inlineStr">
-        <is>
-          <t>WRT_OFFS</t>
-        </is>
-      </c>
-      <c r="C56" s="11" t="inlineStr">
+      <c r="A56" s="8" t="inlineStr">
+        <is>
+          <t>ASSET_REM</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C56" s="9" t="inlineStr">
         <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="57" ht="36" customHeight="1">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>ASSET_REM</t>
-        </is>
-      </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="A57" s="10" t="inlineStr">
+        <is>
+          <t>LIAB_SFT</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="inlineStr">
         <is>
           <t>STCK</t>
         </is>
       </c>
-      <c r="C57" s="9" t="inlineStr">
+      <c r="C57" s="11" t="inlineStr">
         <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="58" ht="36" customHeight="1">
-      <c r="A58" s="8" t="inlineStr">
-        <is>
-          <t>ASSET_REM</t>
-        </is>
-      </c>
-      <c r="B58" s="4" t="inlineStr">
+      <c r="A58" s="10" t="inlineStr">
+        <is>
+          <t>LIAB_SFT</t>
+        </is>
+      </c>
+      <c r="B58" s="6" t="inlineStr">
         <is>
           <t>EUR_STCK</t>
         </is>
       </c>
-      <c r="C58" s="9" t="inlineStr">
+      <c r="C58" s="11" t="inlineStr">
         <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="59" ht="36" customHeight="1">
-      <c r="A59" s="10" t="inlineStr">
-        <is>
-          <t>LIAB_SFT</t>
-        </is>
-      </c>
-      <c r="B59" s="6" t="inlineStr">
+      <c r="A59" s="8" t="inlineStr">
+        <is>
+          <t>LIAB_DEBT</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>STCK</t>
         </is>
       </c>
-      <c r="C59" s="11" t="inlineStr">
+      <c r="C59" s="9" t="inlineStr">
         <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="60" ht="36" customHeight="1">
-      <c r="A60" s="10" t="inlineStr">
-        <is>
-          <t>LIAB_SFT</t>
-        </is>
-      </c>
-      <c r="B60" s="6" t="inlineStr">
+      <c r="A60" s="8" t="inlineStr">
+        <is>
+          <t>LIAB_DEBT</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
         <is>
           <t>EUR_STCK</t>
         </is>
       </c>
-      <c r="C60" s="11" t="inlineStr">
+      <c r="C60" s="9" t="inlineStr">
         <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
@@ -33638,12 +33638,12 @@
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C61" s="9" t="inlineStr">
         <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+          <t>FLOAT</t>
         </is>
       </c>
     </row>
@@ -33655,7 +33655,7 @@
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>NMNL_STCK</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
@@ -33672,7 +33672,7 @@
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C63" s="9" t="inlineStr">
@@ -33689,46 +33689,46 @@
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>NMNL_STCK</t>
+          <t>ARRRS</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="36" customHeight="1">
+      <c r="A65" s="10" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B65" s="6" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C65" s="11" t="inlineStr">
+        <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="36" customHeight="1">
-      <c r="A65" s="8" t="inlineStr">
-        <is>
-          <t>LIAB_DEBT</t>
-        </is>
-      </c>
-      <c r="B65" s="4" t="inlineStr">
-        <is>
-          <t>ACCRLS</t>
-        </is>
-      </c>
-      <c r="C65" s="9" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
-        </is>
-      </c>
-    </row>
     <row r="66" ht="36" customHeight="1">
-      <c r="A66" s="8" t="inlineStr">
-        <is>
-          <t>LIAB_DEBT</t>
-        </is>
-      </c>
-      <c r="B66" s="4" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C66" s="9" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
+      <c r="A66" s="10" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B66" s="6" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C66" s="11" t="inlineStr">
+        <is>
+          <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
@@ -33740,12 +33740,12 @@
       </c>
       <c r="B67" s="6" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>UDRN_AMNT</t>
         </is>
       </c>
       <c r="C67" s="11" t="inlineStr">
         <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+          <t>FLOAT</t>
         </is>
       </c>
     </row>
@@ -33757,12 +33757,12 @@
       </c>
       <c r="B68" s="6" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C68" s="11" t="inlineStr">
         <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+          <t>FLOAT</t>
         </is>
       </c>
     </row>
@@ -33774,7 +33774,7 @@
       </c>
       <c r="B69" s="6" t="inlineStr">
         <is>
-          <t>UDRN_AMNT</t>
+          <t>ARRRS</t>
         </is>
       </c>
       <c r="C69" s="11" t="inlineStr">
@@ -33791,78 +33791,78 @@
       </c>
       <c r="B70" s="6" t="inlineStr">
         <is>
-          <t>ACCRLS</t>
+          <t>WRT_OFFS</t>
         </is>
       </c>
       <c r="C70" s="11" t="inlineStr">
         <is>
-          <t>FLOAT</t>
+          <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="71" ht="36" customHeight="1">
-      <c r="A71" s="10" t="inlineStr">
-        <is>
-          <t>LOAN</t>
-        </is>
-      </c>
-      <c r="B71" s="6" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C71" s="11" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
+      <c r="A71" s="8" t="inlineStr">
+        <is>
+          <t>LIAB_REM</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C71" s="9" t="inlineStr">
+        <is>
+          <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="72" ht="36" customHeight="1">
-      <c r="A72" s="10" t="inlineStr">
-        <is>
-          <t>LOAN</t>
-        </is>
-      </c>
-      <c r="B72" s="6" t="inlineStr">
-        <is>
-          <t>WRT_OFFS</t>
-        </is>
-      </c>
-      <c r="C72" s="11" t="inlineStr">
+      <c r="A72" s="8" t="inlineStr">
+        <is>
+          <t>LIAB_REM</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C72" s="9" t="inlineStr">
         <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="73" ht="36" customHeight="1">
-      <c r="A73" s="8" t="inlineStr">
-        <is>
-          <t>LIAB_REM</t>
-        </is>
-      </c>
-      <c r="B73" s="4" t="inlineStr">
-        <is>
-          <t>STCK</t>
-        </is>
-      </c>
-      <c r="C73" s="9" t="inlineStr">
+      <c r="A73" s="10" t="inlineStr">
+        <is>
+          <t>HOLDER</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
+        <is>
+          <t>QNTTY</t>
+        </is>
+      </c>
+      <c r="C73" s="11" t="inlineStr">
         <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="74" ht="36" customHeight="1">
-      <c r="A74" s="8" t="inlineStr">
-        <is>
-          <t>LIAB_REM</t>
-        </is>
-      </c>
-      <c r="B74" s="4" t="inlineStr">
-        <is>
-          <t>EUR_STCK</t>
-        </is>
-      </c>
-      <c r="C74" s="9" t="inlineStr">
+      <c r="A74" s="10" t="inlineStr">
+        <is>
+          <t>HOLDER</t>
+        </is>
+      </c>
+      <c r="B74" s="6" t="inlineStr">
+        <is>
+          <t>SBSCRPTNS</t>
+        </is>
+      </c>
+      <c r="C74" s="11" t="inlineStr">
         <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
@@ -33876,12 +33876,12 @@
       </c>
       <c r="B75" s="6" t="inlineStr">
         <is>
-          <t>QNTTY</t>
+          <t>SUB_CHRGS</t>
         </is>
       </c>
       <c r="C75" s="11" t="inlineStr">
         <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+          <t>FLOAT</t>
         </is>
       </c>
     </row>
@@ -33893,7 +33893,7 @@
       </c>
       <c r="B76" s="6" t="inlineStr">
         <is>
-          <t>SBSCRPTNS</t>
+          <t>RDMPTNS</t>
         </is>
       </c>
       <c r="C76" s="11" t="inlineStr">
@@ -33910,7 +33910,7 @@
       </c>
       <c r="B77" s="6" t="inlineStr">
         <is>
-          <t>SUB_CHRGS</t>
+          <t>RED_CHRGS</t>
         </is>
       </c>
       <c r="C77" s="11" t="inlineStr">
@@ -33919,42 +33919,8 @@
         </is>
       </c>
     </row>
-    <row r="78" ht="36" customHeight="1">
-      <c r="A78" s="10" t="inlineStr">
-        <is>
-          <t>HOLDER</t>
-        </is>
-      </c>
-      <c r="B78" s="6" t="inlineStr">
-        <is>
-          <t>RDMPTNS</t>
-        </is>
-      </c>
-      <c r="C78" s="11" t="inlineStr">
-        <is>
-          <t>NON_NEGATIVE_FLOAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="79" ht="36" customHeight="1">
-      <c r="A79" s="10" t="inlineStr">
-        <is>
-          <t>HOLDER</t>
-        </is>
-      </c>
-      <c r="B79" s="6" t="inlineStr">
-        <is>
-          <t>RED_CHRGS</t>
-        </is>
-      </c>
-      <c r="C79" s="11" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C79"/>
+  <autoFilter ref="A1:C77"/>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId2"/>
@@ -33987,14 +33953,14 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A30" r:id="rId29"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A31" r:id="rId30"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A32" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A33" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A34" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C34" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C32" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A33" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A34" r:id="rId34"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A35" r:id="rId35"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A36" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A37" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A38" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C38" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C36" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A37" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A38" r:id="rId39"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A39" r:id="rId40"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A40" r:id="rId41"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A41" r:id="rId42"/>
@@ -34034,8 +34000,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A75" r:id="rId76"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A76" r:id="rId77"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A77" r:id="rId78"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A78" r:id="rId79"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A79" r:id="rId80"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -34047,7 +34011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -34363,216 +34327,216 @@
       </c>
     </row>
     <row r="12" ht="36" customHeight="1">
-      <c r="A12" s="10" t="inlineStr">
-        <is>
-          <t>DEPOSIT</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>ASSET_SFT</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D12" s="14" t="inlineStr">
+      <c r="D12" s="13" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E12" s="11" t="inlineStr">
+      <c r="E12" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="13" ht="36" customHeight="1">
-      <c r="A13" s="10" t="inlineStr">
-        <is>
-          <t>DEPOSIT</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C13" s="6" t="inlineStr">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>ASSET_SFT</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D13" s="14" t="inlineStr">
+      <c r="D13" s="13" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E13" s="11" t="inlineStr">
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="14" ht="36" customHeight="1">
-      <c r="A14" s="10" t="inlineStr">
-        <is>
-          <t>DEPOSIT</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>WRT_OFFS</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>ASSET_SFT</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D14" s="14" t="inlineStr">
+      <c r="D14" s="13" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E14" s="11" t="inlineStr">
+      <c r="E14" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="15" ht="36" customHeight="1">
-      <c r="A15" s="10" t="inlineStr">
-        <is>
-          <t>DEPOSIT</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>WRT_OFFS</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>ASSET_SFT</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D15" s="14" t="inlineStr">
+      <c r="D15" s="13" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E15" s="11" t="inlineStr">
+      <c r="E15" s="9" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="16" ht="36" customHeight="1">
-      <c r="A16" s="8" t="inlineStr">
-        <is>
-          <t>ASSET_SFT</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>ASSET_DEBT</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>STCK</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D16" s="13" t="inlineStr">
+      <c r="D16" s="14" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E16" s="9" t="inlineStr">
+      <c r="E16" s="11" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="17" ht="36" customHeight="1">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>ASSET_SFT</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="A17" s="10" t="inlineStr">
+        <is>
+          <t>ASSET_DEBT</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>STCK</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D17" s="13" t="inlineStr">
+      <c r="D17" s="14" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E17" s="9" t="inlineStr">
+      <c r="E17" s="11" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="18" ht="36" customHeight="1">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>ASSET_SFT</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="A18" s="10" t="inlineStr">
+        <is>
+          <t>ASSET_DEBT</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>EUR_STCK</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D18" s="13" t="inlineStr">
+      <c r="D18" s="14" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E18" s="9" t="inlineStr">
+      <c r="E18" s="11" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="19" ht="36" customHeight="1">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>ASSET_SFT</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="A19" s="10" t="inlineStr">
+        <is>
+          <t>ASSET_DEBT</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>EUR_STCK</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D19" s="13" t="inlineStr">
+      <c r="D19" s="14" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E19" s="9" t="inlineStr">
+      <c r="E19" s="11" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -34586,7 +34550,7 @@
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C20" s="6" t="inlineStr">
@@ -34613,7 +34577,7 @@
       </c>
       <c r="B21" s="6" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C21" s="6" t="inlineStr">
@@ -34640,7 +34604,7 @@
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>NMNL_STCK</t>
         </is>
       </c>
       <c r="C22" s="6" t="inlineStr">
@@ -34667,7 +34631,7 @@
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>NMNL_STCK</t>
         </is>
       </c>
       <c r="C23" s="6" t="inlineStr">
@@ -34694,7 +34658,7 @@
       </c>
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>LND_FR_RPS</t>
         </is>
       </c>
       <c r="C24" s="6" t="inlineStr">
@@ -34721,7 +34685,7 @@
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>LND_FR_RPS</t>
         </is>
       </c>
       <c r="C25" s="6" t="inlineStr">
@@ -34748,7 +34712,7 @@
       </c>
       <c r="B26" s="6" t="inlineStr">
         <is>
-          <t>NMNL_STCK</t>
+          <t>LND_FR_SCLB</t>
         </is>
       </c>
       <c r="C26" s="6" t="inlineStr">
@@ -34775,7 +34739,7 @@
       </c>
       <c r="B27" s="6" t="inlineStr">
         <is>
-          <t>NMNL_STCK</t>
+          <t>LND_FR_SCLB</t>
         </is>
       </c>
       <c r="C27" s="6" t="inlineStr">
@@ -34802,7 +34766,7 @@
       </c>
       <c r="B28" s="6" t="inlineStr">
         <is>
-          <t>LND_FR_RPS</t>
+          <t>LND_FR_BSBT</t>
         </is>
       </c>
       <c r="C28" s="6" t="inlineStr">
@@ -34829,7 +34793,7 @@
       </c>
       <c r="B29" s="6" t="inlineStr">
         <is>
-          <t>LND_FR_RPS</t>
+          <t>LND_FR_BSBT</t>
         </is>
       </c>
       <c r="C29" s="6" t="inlineStr">
@@ -34856,7 +34820,7 @@
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>LND_FR_SCLB</t>
+          <t>LND_FR_MLT</t>
         </is>
       </c>
       <c r="C30" s="6" t="inlineStr">
@@ -34883,7 +34847,7 @@
       </c>
       <c r="B31" s="6" t="inlineStr">
         <is>
-          <t>LND_FR_SCLB</t>
+          <t>LND_FR_MLT</t>
         </is>
       </c>
       <c r="C31" s="6" t="inlineStr">
@@ -34910,7 +34874,7 @@
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>LND_FR_BSBT</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C32" s="6" t="inlineStr">
@@ -34937,7 +34901,7 @@
       </c>
       <c r="B33" s="6" t="inlineStr">
         <is>
-          <t>LND_FR_BSBT</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C33" s="6" t="inlineStr">
@@ -34964,7 +34928,7 @@
       </c>
       <c r="B34" s="6" t="inlineStr">
         <is>
-          <t>LND_FR_MLT</t>
+          <t>ARRRS</t>
         </is>
       </c>
       <c r="C34" s="6" t="inlineStr">
@@ -34991,7 +34955,7 @@
       </c>
       <c r="B35" s="6" t="inlineStr">
         <is>
-          <t>LND_FR_MLT</t>
+          <t>ARRRS</t>
         </is>
       </c>
       <c r="C35" s="6" t="inlineStr">
@@ -35011,108 +34975,108 @@
       </c>
     </row>
     <row r="36" ht="36" customHeight="1">
-      <c r="A36" s="10" t="inlineStr">
-        <is>
-          <t>ASSET_DEBT</t>
-        </is>
-      </c>
-      <c r="B36" s="6" t="inlineStr">
-        <is>
-          <t>ACCRLS</t>
-        </is>
-      </c>
-      <c r="C36" s="6" t="inlineStr">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>SHARE</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D36" s="14" t="inlineStr">
+      <c r="D36" s="13" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E36" s="11" t="inlineStr">
+      <c r="E36" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="37" ht="36" customHeight="1">
-      <c r="A37" s="10" t="inlineStr">
-        <is>
-          <t>ASSET_DEBT</t>
-        </is>
-      </c>
-      <c r="B37" s="6" t="inlineStr">
-        <is>
-          <t>ACCRLS</t>
-        </is>
-      </c>
-      <c r="C37" s="6" t="inlineStr">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>SHARE</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D37" s="14" t="inlineStr">
+      <c r="D37" s="13" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E37" s="11" t="inlineStr">
+      <c r="E37" s="9" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="38" ht="36" customHeight="1">
-      <c r="A38" s="10" t="inlineStr">
-        <is>
-          <t>ASSET_DEBT</t>
-        </is>
-      </c>
-      <c r="B38" s="6" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C38" s="6" t="inlineStr">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>SHARE</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D38" s="14" t="inlineStr">
+      <c r="D38" s="13" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E38" s="11" t="inlineStr">
+      <c r="E38" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="39" ht="36" customHeight="1">
-      <c r="A39" s="10" t="inlineStr">
-        <is>
-          <t>ASSET_DEBT</t>
-        </is>
-      </c>
-      <c r="B39" s="6" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C39" s="6" t="inlineStr">
+      <c r="A39" s="8" t="inlineStr">
+        <is>
+          <t>SHARE</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D39" s="14" t="inlineStr">
+      <c r="D39" s="13" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E39" s="11" t="inlineStr">
+      <c r="E39" s="9" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -35126,7 +35090,7 @@
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
@@ -35153,7 +35117,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
@@ -35180,7 +35144,7 @@
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>QNTTY</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
@@ -35207,7 +35171,7 @@
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>QNTTY</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
@@ -35234,7 +35198,7 @@
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>LND_FR_RPS</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
@@ -35261,7 +35225,7 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>LND_FR_RPS</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
@@ -35288,7 +35252,7 @@
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>QNTTY</t>
+          <t>LND_FR_SCLB</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
@@ -35315,7 +35279,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>QNTTY</t>
+          <t>LND_FR_SCLB</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
@@ -35342,7 +35306,7 @@
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>LND_FR_RPS</t>
+          <t>LND_FR_BSBT</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
@@ -35369,7 +35333,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>LND_FR_RPS</t>
+          <t>LND_FR_BSBT</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
@@ -35396,7 +35360,7 @@
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>LND_FR_SCLB</t>
+          <t>LND_FR_MLT</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
@@ -35423,7 +35387,7 @@
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>LND_FR_SCLB</t>
+          <t>LND_FR_MLT</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
@@ -35443,108 +35407,108 @@
       </c>
     </row>
     <row r="52" ht="36" customHeight="1">
-      <c r="A52" s="8" t="inlineStr">
-        <is>
-          <t>SHARE</t>
-        </is>
-      </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>LND_FR_BSBT</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="A52" s="10" t="inlineStr">
+        <is>
+          <t>EXT_DERIVATIVE</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C52" s="6" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D52" s="13" t="inlineStr">
+      <c r="D52" s="14" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E52" s="9" t="inlineStr">
+      <c r="E52" s="11" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="53" ht="36" customHeight="1">
-      <c r="A53" s="8" t="inlineStr">
-        <is>
-          <t>SHARE</t>
-        </is>
-      </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>LND_FR_BSBT</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="A53" s="10" t="inlineStr">
+        <is>
+          <t>EXT_DERIVATIVE</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C53" s="6" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D53" s="13" t="inlineStr">
+      <c r="D53" s="14" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E53" s="9" t="inlineStr">
+      <c r="E53" s="11" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="54" ht="36" customHeight="1">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>SHARE</t>
-        </is>
-      </c>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>LND_FR_MLT</t>
-        </is>
-      </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="A54" s="10" t="inlineStr">
+        <is>
+          <t>EXT_DERIVATIVE</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C54" s="6" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D54" s="13" t="inlineStr">
+      <c r="D54" s="14" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E54" s="9" t="inlineStr">
+      <c r="E54" s="11" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="55" ht="36" customHeight="1">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>SHARE</t>
-        </is>
-      </c>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>LND_FR_MLT</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="A55" s="10" t="inlineStr">
+        <is>
+          <t>EXT_DERIVATIVE</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D55" s="13" t="inlineStr">
+      <c r="D55" s="14" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E55" s="9" t="inlineStr">
+      <c r="E55" s="11" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -35558,7 +35522,7 @@
       </c>
       <c r="B56" s="6" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>GRSS_STCK</t>
         </is>
       </c>
       <c r="C56" s="6" t="inlineStr">
@@ -35585,7 +35549,7 @@
       </c>
       <c r="B57" s="6" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>GRSS_STCK</t>
         </is>
       </c>
       <c r="C57" s="6" t="inlineStr">
@@ -35612,7 +35576,7 @@
       </c>
       <c r="B58" s="6" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C58" s="6" t="inlineStr">
@@ -35639,7 +35603,7 @@
       </c>
       <c r="B59" s="6" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C59" s="6" t="inlineStr">
@@ -35666,7 +35630,7 @@
       </c>
       <c r="B60" s="6" t="inlineStr">
         <is>
-          <t>GRSS_STCK</t>
+          <t>QNTTY</t>
         </is>
       </c>
       <c r="C60" s="6" t="inlineStr">
@@ -35693,7 +35657,7 @@
       </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
-          <t>GRSS_STCK</t>
+          <t>QNTTY</t>
         </is>
       </c>
       <c r="C61" s="6" t="inlineStr">
@@ -35720,7 +35684,7 @@
       </c>
       <c r="B62" s="6" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>STRTGY</t>
         </is>
       </c>
       <c r="C62" s="6" t="inlineStr">
@@ -35747,7 +35711,7 @@
       </c>
       <c r="B63" s="6" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>STRTGY</t>
         </is>
       </c>
       <c r="C63" s="6" t="inlineStr">
@@ -35767,108 +35731,108 @@
       </c>
     </row>
     <row r="64" ht="36" customHeight="1">
-      <c r="A64" s="10" t="inlineStr">
-        <is>
-          <t>EXT_DERIVATIVE</t>
-        </is>
-      </c>
-      <c r="B64" s="6" t="inlineStr">
-        <is>
-          <t>QNTTY</t>
-        </is>
-      </c>
-      <c r="C64" s="6" t="inlineStr">
+      <c r="A64" s="8" t="inlineStr">
+        <is>
+          <t>OTC_DERIVATIVE</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D64" s="14" t="inlineStr">
+      <c r="D64" s="13" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E64" s="11" t="inlineStr">
+      <c r="E64" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="65" ht="36" customHeight="1">
-      <c r="A65" s="10" t="inlineStr">
-        <is>
-          <t>EXT_DERIVATIVE</t>
-        </is>
-      </c>
-      <c r="B65" s="6" t="inlineStr">
-        <is>
-          <t>QNTTY</t>
-        </is>
-      </c>
-      <c r="C65" s="6" t="inlineStr">
+      <c r="A65" s="8" t="inlineStr">
+        <is>
+          <t>OTC_DERIVATIVE</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D65" s="14" t="inlineStr">
+      <c r="D65" s="13" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E65" s="11" t="inlineStr">
+      <c r="E65" s="9" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="66" ht="36" customHeight="1">
-      <c r="A66" s="10" t="inlineStr">
-        <is>
-          <t>EXT_DERIVATIVE</t>
-        </is>
-      </c>
-      <c r="B66" s="6" t="inlineStr">
-        <is>
-          <t>STRTGY</t>
-        </is>
-      </c>
-      <c r="C66" s="6" t="inlineStr">
+      <c r="A66" s="8" t="inlineStr">
+        <is>
+          <t>OTC_DERIVATIVE</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D66" s="14" t="inlineStr">
+      <c r="D66" s="13" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E66" s="11" t="inlineStr">
+      <c r="E66" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="67" ht="36" customHeight="1">
-      <c r="A67" s="10" t="inlineStr">
-        <is>
-          <t>EXT_DERIVATIVE</t>
-        </is>
-      </c>
-      <c r="B67" s="6" t="inlineStr">
-        <is>
-          <t>STRTGY</t>
-        </is>
-      </c>
-      <c r="C67" s="6" t="inlineStr">
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>OTC_DERIVATIVE</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D67" s="14" t="inlineStr">
+      <c r="D67" s="13" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E67" s="11" t="inlineStr">
+      <c r="E67" s="9" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -35882,7 +35846,7 @@
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
@@ -35909,7 +35873,7 @@
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
@@ -35936,7 +35900,7 @@
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>STRTGY</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
@@ -35963,128 +35927,128 @@
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
+          <t>STRTGY</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>CONF</t>
+        </is>
+      </c>
+      <c r="D71" s="13" t="inlineStr">
+        <is>
+          <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
+        </is>
+      </c>
+      <c r="E71" s="9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="36" customHeight="1">
+      <c r="A72" s="10" t="inlineStr">
+        <is>
+          <t>RESIDENTIAL_RE</t>
+        </is>
+      </c>
+      <c r="B72" s="6" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="D72" s="14" t="inlineStr">
+        <is>
+          <t>ATTR_OBSRVTN_STTS_ENUM</t>
+        </is>
+      </c>
+      <c r="E72" s="11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="36" customHeight="1">
+      <c r="A73" s="10" t="inlineStr">
+        <is>
+          <t>RESIDENTIAL_RE</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>CONF</t>
+        </is>
+      </c>
+      <c r="D73" s="14" t="inlineStr">
+        <is>
+          <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
+        </is>
+      </c>
+      <c r="E73" s="11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="36" customHeight="1">
+      <c r="A74" s="10" t="inlineStr">
+        <is>
+          <t>RESIDENTIAL_RE</t>
+        </is>
+      </c>
+      <c r="B74" s="6" t="inlineStr">
+        <is>
           <t>EUR_STCK</t>
         </is>
       </c>
-      <c r="C71" s="4" t="inlineStr">
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="D74" s="14" t="inlineStr">
+        <is>
+          <t>ATTR_OBSRVTN_STTS_ENUM</t>
+        </is>
+      </c>
+      <c r="E74" s="11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="36" customHeight="1">
+      <c r="A75" s="10" t="inlineStr">
+        <is>
+          <t>RESIDENTIAL_RE</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D71" s="13" t="inlineStr">
+      <c r="D75" s="14" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E71" s="9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="72" ht="36" customHeight="1">
-      <c r="A72" s="8" t="inlineStr">
-        <is>
-          <t>OTC_DERIVATIVE</t>
-        </is>
-      </c>
-      <c r="B72" s="4" t="inlineStr">
-        <is>
-          <t>TRNSCTNS</t>
-        </is>
-      </c>
-      <c r="C72" s="4" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="D72" s="13" t="inlineStr">
-        <is>
-          <t>ATTR_OBSRVTN_STTS_ENUM</t>
-        </is>
-      </c>
-      <c r="E72" s="9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="73" ht="36" customHeight="1">
-      <c r="A73" s="8" t="inlineStr">
-        <is>
-          <t>OTC_DERIVATIVE</t>
-        </is>
-      </c>
-      <c r="B73" s="4" t="inlineStr">
-        <is>
-          <t>TRNSCTNS</t>
-        </is>
-      </c>
-      <c r="C73" s="4" t="inlineStr">
-        <is>
-          <t>CONF</t>
-        </is>
-      </c>
-      <c r="D73" s="13" t="inlineStr">
-        <is>
-          <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
-        </is>
-      </c>
-      <c r="E73" s="9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="74" ht="36" customHeight="1">
-      <c r="A74" s="8" t="inlineStr">
-        <is>
-          <t>OTC_DERIVATIVE</t>
-        </is>
-      </c>
-      <c r="B74" s="4" t="inlineStr">
-        <is>
-          <t>STRTGY</t>
-        </is>
-      </c>
-      <c r="C74" s="4" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="D74" s="13" t="inlineStr">
-        <is>
-          <t>ATTR_OBSRVTN_STTS_ENUM</t>
-        </is>
-      </c>
-      <c r="E74" s="9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="75" ht="36" customHeight="1">
-      <c r="A75" s="8" t="inlineStr">
-        <is>
-          <t>OTC_DERIVATIVE</t>
-        </is>
-      </c>
-      <c r="B75" s="4" t="inlineStr">
-        <is>
-          <t>STRTGY</t>
-        </is>
-      </c>
-      <c r="C75" s="4" t="inlineStr">
-        <is>
-          <t>CONF</t>
-        </is>
-      </c>
-      <c r="D75" s="13" t="inlineStr">
-        <is>
-          <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
-        </is>
-      </c>
-      <c r="E75" s="9" t="inlineStr">
+      <c r="E75" s="11" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -36098,7 +36062,7 @@
       </c>
       <c r="B76" s="6" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C76" s="6" t="inlineStr">
@@ -36125,7 +36089,7 @@
       </c>
       <c r="B77" s="6" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C77" s="6" t="inlineStr">
@@ -36152,7 +36116,7 @@
       </c>
       <c r="B78" s="6" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C78" s="6" t="inlineStr">
@@ -36179,7 +36143,7 @@
       </c>
       <c r="B79" s="6" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C79" s="6" t="inlineStr">
@@ -36206,7 +36170,7 @@
       </c>
       <c r="B80" s="6" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>ARRRS</t>
         </is>
       </c>
       <c r="C80" s="6" t="inlineStr">
@@ -36233,7 +36197,7 @@
       </c>
       <c r="B81" s="6" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>ARRRS</t>
         </is>
       </c>
       <c r="C81" s="6" t="inlineStr">
@@ -36260,7 +36224,7 @@
       </c>
       <c r="B82" s="6" t="inlineStr">
         <is>
-          <t>ACCRLS</t>
+          <t>WRT_OFFS</t>
         </is>
       </c>
       <c r="C82" s="6" t="inlineStr">
@@ -36287,7 +36251,7 @@
       </c>
       <c r="B83" s="6" t="inlineStr">
         <is>
-          <t>ACCRLS</t>
+          <t>WRT_OFFS</t>
         </is>
       </c>
       <c r="C83" s="6" t="inlineStr">
@@ -36307,108 +36271,108 @@
       </c>
     </row>
     <row r="84" ht="36" customHeight="1">
-      <c r="A84" s="10" t="inlineStr">
-        <is>
-          <t>RESIDENTIAL_RE</t>
-        </is>
-      </c>
-      <c r="B84" s="6" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C84" s="6" t="inlineStr">
+      <c r="A84" s="8" t="inlineStr">
+        <is>
+          <t>COMMERCIAL_RE</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D84" s="14" t="inlineStr">
+      <c r="D84" s="13" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E84" s="11" t="inlineStr">
+      <c r="E84" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="85" ht="36" customHeight="1">
-      <c r="A85" s="10" t="inlineStr">
-        <is>
-          <t>RESIDENTIAL_RE</t>
-        </is>
-      </c>
-      <c r="B85" s="6" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C85" s="6" t="inlineStr">
+      <c r="A85" s="8" t="inlineStr">
+        <is>
+          <t>COMMERCIAL_RE</t>
+        </is>
+      </c>
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C85" s="4" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D85" s="14" t="inlineStr">
+      <c r="D85" s="13" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E85" s="11" t="inlineStr">
+      <c r="E85" s="9" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="86" ht="36" customHeight="1">
-      <c r="A86" s="10" t="inlineStr">
-        <is>
-          <t>RESIDENTIAL_RE</t>
-        </is>
-      </c>
-      <c r="B86" s="6" t="inlineStr">
-        <is>
-          <t>WRT_OFFS</t>
-        </is>
-      </c>
-      <c r="C86" s="6" t="inlineStr">
+      <c r="A86" s="8" t="inlineStr">
+        <is>
+          <t>COMMERCIAL_RE</t>
+        </is>
+      </c>
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C86" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D86" s="14" t="inlineStr">
+      <c r="D86" s="13" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E86" s="11" t="inlineStr">
+      <c r="E86" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="87" ht="36" customHeight="1">
-      <c r="A87" s="10" t="inlineStr">
-        <is>
-          <t>RESIDENTIAL_RE</t>
-        </is>
-      </c>
-      <c r="B87" s="6" t="inlineStr">
-        <is>
-          <t>WRT_OFFS</t>
-        </is>
-      </c>
-      <c r="C87" s="6" t="inlineStr">
+      <c r="A87" s="8" t="inlineStr">
+        <is>
+          <t>COMMERCIAL_RE</t>
+        </is>
+      </c>
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C87" s="4" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D87" s="14" t="inlineStr">
+      <c r="D87" s="13" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E87" s="11" t="inlineStr">
+      <c r="E87" s="9" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -36422,7 +36386,7 @@
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
@@ -36449,7 +36413,7 @@
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
@@ -36476,7 +36440,7 @@
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
@@ -36503,7 +36467,7 @@
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
@@ -36530,7 +36494,7 @@
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>ARRRS</t>
         </is>
       </c>
       <c r="C92" s="4" t="inlineStr">
@@ -36557,7 +36521,7 @@
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>ARRRS</t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
@@ -36584,7 +36548,7 @@
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>ACCRLS</t>
+          <t>WRT_OFFS</t>
         </is>
       </c>
       <c r="C94" s="4" t="inlineStr">
@@ -36611,7 +36575,7 @@
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>ACCRLS</t>
+          <t>WRT_OFFS</t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
@@ -36631,108 +36595,108 @@
       </c>
     </row>
     <row r="96" ht="36" customHeight="1">
-      <c r="A96" s="8" t="inlineStr">
-        <is>
-          <t>COMMERCIAL_RE</t>
-        </is>
-      </c>
-      <c r="B96" s="4" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C96" s="4" t="inlineStr">
+      <c r="A96" s="10" t="inlineStr">
+        <is>
+          <t>REM_FIXED</t>
+        </is>
+      </c>
+      <c r="B96" s="6" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C96" s="6" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D96" s="13" t="inlineStr">
+      <c r="D96" s="14" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E96" s="9" t="inlineStr">
+      <c r="E96" s="11" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="97" ht="36" customHeight="1">
-      <c r="A97" s="8" t="inlineStr">
-        <is>
-          <t>COMMERCIAL_RE</t>
-        </is>
-      </c>
-      <c r="B97" s="4" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C97" s="4" t="inlineStr">
+      <c r="A97" s="10" t="inlineStr">
+        <is>
+          <t>REM_FIXED</t>
+        </is>
+      </c>
+      <c r="B97" s="6" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C97" s="6" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D97" s="13" t="inlineStr">
+      <c r="D97" s="14" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E97" s="9" t="inlineStr">
+      <c r="E97" s="11" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="98" ht="36" customHeight="1">
-      <c r="A98" s="8" t="inlineStr">
-        <is>
-          <t>COMMERCIAL_RE</t>
-        </is>
-      </c>
-      <c r="B98" s="4" t="inlineStr">
-        <is>
-          <t>WRT_OFFS</t>
-        </is>
-      </c>
-      <c r="C98" s="4" t="inlineStr">
+      <c r="A98" s="10" t="inlineStr">
+        <is>
+          <t>REM_FIXED</t>
+        </is>
+      </c>
+      <c r="B98" s="6" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C98" s="6" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D98" s="13" t="inlineStr">
+      <c r="D98" s="14" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E98" s="9" t="inlineStr">
+      <c r="E98" s="11" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="99" ht="36" customHeight="1">
-      <c r="A99" s="8" t="inlineStr">
-        <is>
-          <t>COMMERCIAL_RE</t>
-        </is>
-      </c>
-      <c r="B99" s="4" t="inlineStr">
-        <is>
-          <t>WRT_OFFS</t>
-        </is>
-      </c>
-      <c r="C99" s="4" t="inlineStr">
+      <c r="A99" s="10" t="inlineStr">
+        <is>
+          <t>REM_FIXED</t>
+        </is>
+      </c>
+      <c r="B99" s="6" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C99" s="6" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D99" s="13" t="inlineStr">
+      <c r="D99" s="14" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E99" s="9" t="inlineStr">
+      <c r="E99" s="11" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -36746,7 +36710,7 @@
       </c>
       <c r="B100" s="6" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C100" s="6" t="inlineStr">
@@ -36773,7 +36737,7 @@
       </c>
       <c r="B101" s="6" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C101" s="6" t="inlineStr">
@@ -36800,7 +36764,7 @@
       </c>
       <c r="B102" s="6" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C102" s="6" t="inlineStr">
@@ -36827,7 +36791,7 @@
       </c>
       <c r="B103" s="6" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C103" s="6" t="inlineStr">
@@ -36854,7 +36818,7 @@
       </c>
       <c r="B104" s="6" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>ARRRS</t>
         </is>
       </c>
       <c r="C104" s="6" t="inlineStr">
@@ -36881,7 +36845,7 @@
       </c>
       <c r="B105" s="6" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>ARRRS</t>
         </is>
       </c>
       <c r="C105" s="6" t="inlineStr">
@@ -36908,7 +36872,7 @@
       </c>
       <c r="B106" s="6" t="inlineStr">
         <is>
-          <t>ACCRLS</t>
+          <t>WRT_OFFS</t>
         </is>
       </c>
       <c r="C106" s="6" t="inlineStr">
@@ -36935,7 +36899,7 @@
       </c>
       <c r="B107" s="6" t="inlineStr">
         <is>
-          <t>ACCRLS</t>
+          <t>WRT_OFFS</t>
         </is>
       </c>
       <c r="C107" s="6" t="inlineStr">
@@ -36955,324 +36919,324 @@
       </c>
     </row>
     <row r="108" ht="36" customHeight="1">
-      <c r="A108" s="10" t="inlineStr">
-        <is>
-          <t>REM_FIXED</t>
-        </is>
-      </c>
-      <c r="B108" s="6" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C108" s="6" t="inlineStr">
+      <c r="A108" s="8" t="inlineStr">
+        <is>
+          <t>ASSET_REM</t>
+        </is>
+      </c>
+      <c r="B108" s="4" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C108" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D108" s="14" t="inlineStr">
+      <c r="D108" s="13" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E108" s="11" t="inlineStr">
+      <c r="E108" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="109" ht="36" customHeight="1">
-      <c r="A109" s="10" t="inlineStr">
-        <is>
-          <t>REM_FIXED</t>
-        </is>
-      </c>
-      <c r="B109" s="6" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C109" s="6" t="inlineStr">
+      <c r="A109" s="8" t="inlineStr">
+        <is>
+          <t>ASSET_REM</t>
+        </is>
+      </c>
+      <c r="B109" s="4" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C109" s="4" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D109" s="14" t="inlineStr">
+      <c r="D109" s="13" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E109" s="11" t="inlineStr">
+      <c r="E109" s="9" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="110" ht="36" customHeight="1">
-      <c r="A110" s="10" t="inlineStr">
-        <is>
-          <t>REM_FIXED</t>
-        </is>
-      </c>
-      <c r="B110" s="6" t="inlineStr">
-        <is>
-          <t>WRT_OFFS</t>
-        </is>
-      </c>
-      <c r="C110" s="6" t="inlineStr">
+      <c r="A110" s="8" t="inlineStr">
+        <is>
+          <t>ASSET_REM</t>
+        </is>
+      </c>
+      <c r="B110" s="4" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C110" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D110" s="14" t="inlineStr">
+      <c r="D110" s="13" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E110" s="11" t="inlineStr">
+      <c r="E110" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="111" ht="36" customHeight="1">
-      <c r="A111" s="10" t="inlineStr">
-        <is>
-          <t>REM_FIXED</t>
-        </is>
-      </c>
-      <c r="B111" s="6" t="inlineStr">
-        <is>
-          <t>WRT_OFFS</t>
-        </is>
-      </c>
-      <c r="C111" s="6" t="inlineStr">
+      <c r="A111" s="8" t="inlineStr">
+        <is>
+          <t>ASSET_REM</t>
+        </is>
+      </c>
+      <c r="B111" s="4" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C111" s="4" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D111" s="14" t="inlineStr">
+      <c r="D111" s="13" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E111" s="11" t="inlineStr">
+      <c r="E111" s="9" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="112" ht="36" customHeight="1">
-      <c r="A112" s="8" t="inlineStr">
-        <is>
-          <t>ASSET_REM</t>
-        </is>
-      </c>
-      <c r="B112" s="4" t="inlineStr">
+      <c r="A112" s="10" t="inlineStr">
+        <is>
+          <t>LIAB_SFT</t>
+        </is>
+      </c>
+      <c r="B112" s="6" t="inlineStr">
         <is>
           <t>STCK</t>
         </is>
       </c>
-      <c r="C112" s="4" t="inlineStr">
+      <c r="C112" s="6" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D112" s="13" t="inlineStr">
+      <c r="D112" s="14" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E112" s="9" t="inlineStr">
+      <c r="E112" s="11" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="113" ht="36" customHeight="1">
-      <c r="A113" s="8" t="inlineStr">
-        <is>
-          <t>ASSET_REM</t>
-        </is>
-      </c>
-      <c r="B113" s="4" t="inlineStr">
+      <c r="A113" s="10" t="inlineStr">
+        <is>
+          <t>LIAB_SFT</t>
+        </is>
+      </c>
+      <c r="B113" s="6" t="inlineStr">
         <is>
           <t>STCK</t>
         </is>
       </c>
-      <c r="C113" s="4" t="inlineStr">
+      <c r="C113" s="6" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D113" s="13" t="inlineStr">
+      <c r="D113" s="14" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E113" s="9" t="inlineStr">
+      <c r="E113" s="11" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="114" ht="36" customHeight="1">
-      <c r="A114" s="8" t="inlineStr">
-        <is>
-          <t>ASSET_REM</t>
-        </is>
-      </c>
-      <c r="B114" s="4" t="inlineStr">
+      <c r="A114" s="10" t="inlineStr">
+        <is>
+          <t>LIAB_SFT</t>
+        </is>
+      </c>
+      <c r="B114" s="6" t="inlineStr">
         <is>
           <t>EUR_STCK</t>
         </is>
       </c>
-      <c r="C114" s="4" t="inlineStr">
+      <c r="C114" s="6" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D114" s="13" t="inlineStr">
+      <c r="D114" s="14" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E114" s="9" t="inlineStr">
+      <c r="E114" s="11" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="115" ht="36" customHeight="1">
-      <c r="A115" s="8" t="inlineStr">
-        <is>
-          <t>ASSET_REM</t>
-        </is>
-      </c>
-      <c r="B115" s="4" t="inlineStr">
+      <c r="A115" s="10" t="inlineStr">
+        <is>
+          <t>LIAB_SFT</t>
+        </is>
+      </c>
+      <c r="B115" s="6" t="inlineStr">
         <is>
           <t>EUR_STCK</t>
         </is>
       </c>
-      <c r="C115" s="4" t="inlineStr">
+      <c r="C115" s="6" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D115" s="13" t="inlineStr">
+      <c r="D115" s="14" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E115" s="9" t="inlineStr">
+      <c r="E115" s="11" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="116" ht="36" customHeight="1">
-      <c r="A116" s="10" t="inlineStr">
-        <is>
-          <t>LIAB_SFT</t>
-        </is>
-      </c>
-      <c r="B116" s="6" t="inlineStr">
+      <c r="A116" s="8" t="inlineStr">
+        <is>
+          <t>LIAB_DEBT</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="inlineStr">
         <is>
           <t>STCK</t>
         </is>
       </c>
-      <c r="C116" s="6" t="inlineStr">
+      <c r="C116" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D116" s="14" t="inlineStr">
+      <c r="D116" s="13" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E116" s="11" t="inlineStr">
+      <c r="E116" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="117" ht="36" customHeight="1">
-      <c r="A117" s="10" t="inlineStr">
-        <is>
-          <t>LIAB_SFT</t>
-        </is>
-      </c>
-      <c r="B117" s="6" t="inlineStr">
+      <c r="A117" s="8" t="inlineStr">
+        <is>
+          <t>LIAB_DEBT</t>
+        </is>
+      </c>
+      <c r="B117" s="4" t="inlineStr">
         <is>
           <t>STCK</t>
         </is>
       </c>
-      <c r="C117" s="6" t="inlineStr">
+      <c r="C117" s="4" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D117" s="14" t="inlineStr">
+      <c r="D117" s="13" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E117" s="11" t="inlineStr">
+      <c r="E117" s="9" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="118" ht="36" customHeight="1">
-      <c r="A118" s="10" t="inlineStr">
-        <is>
-          <t>LIAB_SFT</t>
-        </is>
-      </c>
-      <c r="B118" s="6" t="inlineStr">
+      <c r="A118" s="8" t="inlineStr">
+        <is>
+          <t>LIAB_DEBT</t>
+        </is>
+      </c>
+      <c r="B118" s="4" t="inlineStr">
         <is>
           <t>EUR_STCK</t>
         </is>
       </c>
-      <c r="C118" s="6" t="inlineStr">
+      <c r="C118" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D118" s="14" t="inlineStr">
+      <c r="D118" s="13" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E118" s="11" t="inlineStr">
+      <c r="E118" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="119" ht="36" customHeight="1">
-      <c r="A119" s="10" t="inlineStr">
-        <is>
-          <t>LIAB_SFT</t>
-        </is>
-      </c>
-      <c r="B119" s="6" t="inlineStr">
+      <c r="A119" s="8" t="inlineStr">
+        <is>
+          <t>LIAB_DEBT</t>
+        </is>
+      </c>
+      <c r="B119" s="4" t="inlineStr">
         <is>
           <t>EUR_STCK</t>
         </is>
       </c>
-      <c r="C119" s="6" t="inlineStr">
+      <c r="C119" s="4" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D119" s="14" t="inlineStr">
+      <c r="D119" s="13" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E119" s="11" t="inlineStr">
+      <c r="E119" s="9" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -37286,7 +37250,7 @@
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C120" s="4" t="inlineStr">
@@ -37313,7 +37277,7 @@
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>TRNSCTNS</t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
@@ -37340,7 +37304,7 @@
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>NMNL_STCK</t>
         </is>
       </c>
       <c r="C122" s="4" t="inlineStr">
@@ -37367,7 +37331,7 @@
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>NMNL_STCK</t>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
@@ -37394,7 +37358,7 @@
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C124" s="4" t="inlineStr">
@@ -37421,7 +37385,7 @@
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>TRNSCTNS</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
@@ -37448,7 +37412,7 @@
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>NMNL_STCK</t>
+          <t>ARRRS</t>
         </is>
       </c>
       <c r="C126" s="4" t="inlineStr">
@@ -37475,7 +37439,7 @@
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>NMNL_STCK</t>
+          <t>ARRRS</t>
         </is>
       </c>
       <c r="C127" s="4" t="inlineStr">
@@ -37495,108 +37459,108 @@
       </c>
     </row>
     <row r="128" ht="36" customHeight="1">
-      <c r="A128" s="8" t="inlineStr">
-        <is>
-          <t>LIAB_DEBT</t>
-        </is>
-      </c>
-      <c r="B128" s="4" t="inlineStr">
-        <is>
-          <t>ACCRLS</t>
-        </is>
-      </c>
-      <c r="C128" s="4" t="inlineStr">
+      <c r="A128" s="10" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B128" s="6" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C128" s="6" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D128" s="13" t="inlineStr">
+      <c r="D128" s="14" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E128" s="9" t="inlineStr">
+      <c r="E128" s="11" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="129" ht="36" customHeight="1">
-      <c r="A129" s="8" t="inlineStr">
-        <is>
-          <t>LIAB_DEBT</t>
-        </is>
-      </c>
-      <c r="B129" s="4" t="inlineStr">
-        <is>
-          <t>ACCRLS</t>
-        </is>
-      </c>
-      <c r="C129" s="4" t="inlineStr">
+      <c r="A129" s="10" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B129" s="6" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C129" s="6" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D129" s="13" t="inlineStr">
+      <c r="D129" s="14" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E129" s="9" t="inlineStr">
+      <c r="E129" s="11" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="130" ht="36" customHeight="1">
-      <c r="A130" s="8" t="inlineStr">
-        <is>
-          <t>LIAB_DEBT</t>
-        </is>
-      </c>
-      <c r="B130" s="4" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C130" s="4" t="inlineStr">
+      <c r="A130" s="10" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B130" s="6" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C130" s="6" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D130" s="13" t="inlineStr">
+      <c r="D130" s="14" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E130" s="9" t="inlineStr">
+      <c r="E130" s="11" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="131" ht="36" customHeight="1">
-      <c r="A131" s="8" t="inlineStr">
-        <is>
-          <t>LIAB_DEBT</t>
-        </is>
-      </c>
-      <c r="B131" s="4" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C131" s="4" t="inlineStr">
+      <c r="A131" s="10" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B131" s="6" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C131" s="6" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D131" s="13" t="inlineStr">
+      <c r="D131" s="14" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E131" s="9" t="inlineStr">
+      <c r="E131" s="11" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -37610,7 +37574,7 @@
       </c>
       <c r="B132" s="6" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>UDRN_AMNT</t>
         </is>
       </c>
       <c r="C132" s="6" t="inlineStr">
@@ -37637,7 +37601,7 @@
       </c>
       <c r="B133" s="6" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>UDRN_AMNT</t>
         </is>
       </c>
       <c r="C133" s="6" t="inlineStr">
@@ -37664,7 +37628,7 @@
       </c>
       <c r="B134" s="6" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C134" s="6" t="inlineStr">
@@ -37691,7 +37655,7 @@
       </c>
       <c r="B135" s="6" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C135" s="6" t="inlineStr">
@@ -37718,7 +37682,7 @@
       </c>
       <c r="B136" s="6" t="inlineStr">
         <is>
-          <t>UDRN_AMNT</t>
+          <t>ARRRS</t>
         </is>
       </c>
       <c r="C136" s="6" t="inlineStr">
@@ -37745,7 +37709,7 @@
       </c>
       <c r="B137" s="6" t="inlineStr">
         <is>
-          <t>UDRN_AMNT</t>
+          <t>ARRRS</t>
         </is>
       </c>
       <c r="C137" s="6" t="inlineStr">
@@ -37772,7 +37736,7 @@
       </c>
       <c r="B138" s="6" t="inlineStr">
         <is>
-          <t>ACCRLS</t>
+          <t>WRT_OFFS</t>
         </is>
       </c>
       <c r="C138" s="6" t="inlineStr">
@@ -37799,7 +37763,7 @@
       </c>
       <c r="B139" s="6" t="inlineStr">
         <is>
-          <t>ACCRLS</t>
+          <t>WRT_OFFS</t>
         </is>
       </c>
       <c r="C139" s="6" t="inlineStr">
@@ -37819,216 +37783,216 @@
       </c>
     </row>
     <row r="140" ht="36" customHeight="1">
-      <c r="A140" s="10" t="inlineStr">
-        <is>
-          <t>LOAN</t>
-        </is>
-      </c>
-      <c r="B140" s="6" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C140" s="6" t="inlineStr">
+      <c r="A140" s="8" t="inlineStr">
+        <is>
+          <t>LIAB_REM</t>
+        </is>
+      </c>
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C140" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D140" s="14" t="inlineStr">
+      <c r="D140" s="13" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E140" s="11" t="inlineStr">
+      <c r="E140" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="141" ht="36" customHeight="1">
-      <c r="A141" s="10" t="inlineStr">
-        <is>
-          <t>LOAN</t>
-        </is>
-      </c>
-      <c r="B141" s="6" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="C141" s="6" t="inlineStr">
+      <c r="A141" s="8" t="inlineStr">
+        <is>
+          <t>LIAB_REM</t>
+        </is>
+      </c>
+      <c r="B141" s="4" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="C141" s="4" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D141" s="14" t="inlineStr">
+      <c r="D141" s="13" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E141" s="11" t="inlineStr">
+      <c r="E141" s="9" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="142" ht="36" customHeight="1">
-      <c r="A142" s="10" t="inlineStr">
-        <is>
-          <t>LOAN</t>
-        </is>
-      </c>
-      <c r="B142" s="6" t="inlineStr">
-        <is>
-          <t>WRT_OFFS</t>
-        </is>
-      </c>
-      <c r="C142" s="6" t="inlineStr">
+      <c r="A142" s="8" t="inlineStr">
+        <is>
+          <t>LIAB_REM</t>
+        </is>
+      </c>
+      <c r="B142" s="4" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C142" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D142" s="14" t="inlineStr">
+      <c r="D142" s="13" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E142" s="11" t="inlineStr">
+      <c r="E142" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="143" ht="36" customHeight="1">
-      <c r="A143" s="10" t="inlineStr">
-        <is>
-          <t>LOAN</t>
-        </is>
-      </c>
-      <c r="B143" s="6" t="inlineStr">
-        <is>
-          <t>WRT_OFFS</t>
-        </is>
-      </c>
-      <c r="C143" s="6" t="inlineStr">
+      <c r="A143" s="8" t="inlineStr">
+        <is>
+          <t>LIAB_REM</t>
+        </is>
+      </c>
+      <c r="B143" s="4" t="inlineStr">
+        <is>
+          <t>EUR_STCK</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D143" s="14" t="inlineStr">
+      <c r="D143" s="13" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E143" s="11" t="inlineStr">
+      <c r="E143" s="9" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="144" ht="36" customHeight="1">
-      <c r="A144" s="8" t="inlineStr">
-        <is>
-          <t>LIAB_REM</t>
-        </is>
-      </c>
-      <c r="B144" s="4" t="inlineStr">
-        <is>
-          <t>STCK</t>
-        </is>
-      </c>
-      <c r="C144" s="4" t="inlineStr">
+      <c r="A144" s="10" t="inlineStr">
+        <is>
+          <t>HOLDER</t>
+        </is>
+      </c>
+      <c r="B144" s="6" t="inlineStr">
+        <is>
+          <t>QNTTY</t>
+        </is>
+      </c>
+      <c r="C144" s="6" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D144" s="13" t="inlineStr">
+      <c r="D144" s="14" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E144" s="9" t="inlineStr">
+      <c r="E144" s="11" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="145" ht="36" customHeight="1">
-      <c r="A145" s="8" t="inlineStr">
-        <is>
-          <t>LIAB_REM</t>
-        </is>
-      </c>
-      <c r="B145" s="4" t="inlineStr">
-        <is>
-          <t>STCK</t>
-        </is>
-      </c>
-      <c r="C145" s="4" t="inlineStr">
+      <c r="A145" s="10" t="inlineStr">
+        <is>
+          <t>HOLDER</t>
+        </is>
+      </c>
+      <c r="B145" s="6" t="inlineStr">
+        <is>
+          <t>QNTTY</t>
+        </is>
+      </c>
+      <c r="C145" s="6" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D145" s="13" t="inlineStr">
+      <c r="D145" s="14" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E145" s="9" t="inlineStr">
+      <c r="E145" s="11" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="146" ht="36" customHeight="1">
-      <c r="A146" s="8" t="inlineStr">
-        <is>
-          <t>LIAB_REM</t>
-        </is>
-      </c>
-      <c r="B146" s="4" t="inlineStr">
-        <is>
-          <t>EUR_STCK</t>
-        </is>
-      </c>
-      <c r="C146" s="4" t="inlineStr">
+      <c r="A146" s="10" t="inlineStr">
+        <is>
+          <t>HOLDER</t>
+        </is>
+      </c>
+      <c r="B146" s="6" t="inlineStr">
+        <is>
+          <t>SBSCRPTNS</t>
+        </is>
+      </c>
+      <c r="C146" s="6" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D146" s="13" t="inlineStr">
+      <c r="D146" s="14" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E146" s="9" t="inlineStr">
+      <c r="E146" s="11" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="147" ht="36" customHeight="1">
-      <c r="A147" s="8" t="inlineStr">
-        <is>
-          <t>LIAB_REM</t>
-        </is>
-      </c>
-      <c r="B147" s="4" t="inlineStr">
-        <is>
-          <t>EUR_STCK</t>
-        </is>
-      </c>
-      <c r="C147" s="4" t="inlineStr">
+      <c r="A147" s="10" t="inlineStr">
+        <is>
+          <t>HOLDER</t>
+        </is>
+      </c>
+      <c r="B147" s="6" t="inlineStr">
+        <is>
+          <t>SBSCRPTNS</t>
+        </is>
+      </c>
+      <c r="C147" s="6" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
       </c>
-      <c r="D147" s="13" t="inlineStr">
+      <c r="D147" s="14" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E147" s="9" t="inlineStr">
+      <c r="E147" s="11" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -38042,7 +38006,7 @@
       </c>
       <c r="B148" s="6" t="inlineStr">
         <is>
-          <t>QNTTY</t>
+          <t>SUB_CHRGS</t>
         </is>
       </c>
       <c r="C148" s="6" t="inlineStr">
@@ -38069,7 +38033,7 @@
       </c>
       <c r="B149" s="6" t="inlineStr">
         <is>
-          <t>QNTTY</t>
+          <t>SUB_CHRGS</t>
         </is>
       </c>
       <c r="C149" s="6" t="inlineStr">
@@ -38096,7 +38060,7 @@
       </c>
       <c r="B150" s="6" t="inlineStr">
         <is>
-          <t>SBSCRPTNS</t>
+          <t>RDMPTNS</t>
         </is>
       </c>
       <c r="C150" s="6" t="inlineStr">
@@ -38123,7 +38087,7 @@
       </c>
       <c r="B151" s="6" t="inlineStr">
         <is>
-          <t>SBSCRPTNS</t>
+          <t>RDMPTNS</t>
         </is>
       </c>
       <c r="C151" s="6" t="inlineStr">
@@ -38150,7 +38114,7 @@
       </c>
       <c r="B152" s="6" t="inlineStr">
         <is>
-          <t>SUB_CHRGS</t>
+          <t>RED_CHRGS</t>
         </is>
       </c>
       <c r="C152" s="6" t="inlineStr">
@@ -38177,7 +38141,7 @@
       </c>
       <c r="B153" s="6" t="inlineStr">
         <is>
-          <t>SUB_CHRGS</t>
+          <t>RED_CHRGS</t>
         </is>
       </c>
       <c r="C153" s="6" t="inlineStr">
@@ -38196,116 +38160,8 @@
         </is>
       </c>
     </row>
-    <row r="154" ht="36" customHeight="1">
-      <c r="A154" s="10" t="inlineStr">
-        <is>
-          <t>HOLDER</t>
-        </is>
-      </c>
-      <c r="B154" s="6" t="inlineStr">
-        <is>
-          <t>RDMPTNS</t>
-        </is>
-      </c>
-      <c r="C154" s="6" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="D154" s="14" t="inlineStr">
-        <is>
-          <t>ATTR_OBSRVTN_STTS_ENUM</t>
-        </is>
-      </c>
-      <c r="E154" s="11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="155" ht="36" customHeight="1">
-      <c r="A155" s="10" t="inlineStr">
-        <is>
-          <t>HOLDER</t>
-        </is>
-      </c>
-      <c r="B155" s="6" t="inlineStr">
-        <is>
-          <t>RDMPTNS</t>
-        </is>
-      </c>
-      <c r="C155" s="6" t="inlineStr">
-        <is>
-          <t>CONF</t>
-        </is>
-      </c>
-      <c r="D155" s="14" t="inlineStr">
-        <is>
-          <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
-        </is>
-      </c>
-      <c r="E155" s="11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="156" ht="36" customHeight="1">
-      <c r="A156" s="10" t="inlineStr">
-        <is>
-          <t>HOLDER</t>
-        </is>
-      </c>
-      <c r="B156" s="6" t="inlineStr">
-        <is>
-          <t>RED_CHRGS</t>
-        </is>
-      </c>
-      <c r="C156" s="6" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="D156" s="14" t="inlineStr">
-        <is>
-          <t>ATTR_OBSRVTN_STTS_ENUM</t>
-        </is>
-      </c>
-      <c r="E156" s="11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="157" ht="36" customHeight="1">
-      <c r="A157" s="10" t="inlineStr">
-        <is>
-          <t>HOLDER</t>
-        </is>
-      </c>
-      <c r="B157" s="6" t="inlineStr">
-        <is>
-          <t>RED_CHRGS</t>
-        </is>
-      </c>
-      <c r="C157" s="6" t="inlineStr">
-        <is>
-          <t>CONF</t>
-        </is>
-      </c>
-      <c r="D157" s="14" t="inlineStr">
-        <is>
-          <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
-        </is>
-      </c>
-      <c r="E157" s="11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E157"/>
+  <autoFilter ref="A1:E153"/>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" r:id="rId2"/>
@@ -38611,14 +38467,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D152" r:id="rId302"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A153" r:id="rId303"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D153" r:id="rId304"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A154" r:id="rId305"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D154" r:id="rId306"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A155" r:id="rId307"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D155" r:id="rId308"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A156" r:id="rId309"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D156" r:id="rId310"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A157" r:id="rId311"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D157" r:id="rId312"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
